--- a/sources/Teste.xlsx
+++ b/sources/Teste.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1952EA8-B621-4DC1-88D1-1C7C8DE6A6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\Documents\GitHub\python-automatics-data-alterations-in-xml-file\sources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B48DD-CB40-4F23-A7E6-53B65E8EC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>nrconta</t>
   </si>
@@ -59,13 +64,136 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Número da conta</t>
+  </si>
+  <si>
+    <t>Código do procedimento (atual)</t>
+  </si>
+  <si>
+    <t>Código do procedimento (novo)</t>
+  </si>
+  <si>
+    <t>Tipo de tabela (atual)</t>
+  </si>
+  <si>
+    <t>Tipo de tabela (novo)</t>
+  </si>
+  <si>
+    <t>Unidade de medida (atual)</t>
+  </si>
+  <si>
+    <t>Unidade de medida (novo)</t>
+  </si>
+  <si>
+    <t>0000062684</t>
+  </si>
+  <si>
+    <t>2094000492</t>
+  </si>
+  <si>
+    <t>79419623</t>
+  </si>
+  <si>
+    <t>1900159085</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>0000119306</t>
+  </si>
+  <si>
+    <t>1900224723</t>
+  </si>
+  <si>
+    <t>0000145371</t>
+  </si>
+  <si>
+    <t>1902962543</t>
+  </si>
+  <si>
+    <t>0000767118</t>
+  </si>
+  <si>
+    <t>1900312770</t>
+  </si>
+  <si>
+    <t>78202426</t>
+  </si>
+  <si>
+    <t>1900774243</t>
+  </si>
+  <si>
+    <t>0000273887</t>
+  </si>
+  <si>
+    <t>1900405140</t>
+  </si>
+  <si>
+    <t>78413494</t>
+  </si>
+  <si>
+    <t>1900108332</t>
+  </si>
+  <si>
+    <t>0000064026</t>
+  </si>
+  <si>
+    <t>90247604</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>0000306686</t>
+  </si>
+  <si>
+    <t>2094372470</t>
+  </si>
+  <si>
+    <t>60002054</t>
+  </si>
+  <si>
+    <t>60001054</t>
+  </si>
+  <si>
+    <t>70705259</t>
+  </si>
+  <si>
+    <t>1900225495</t>
+  </si>
+  <si>
+    <t>78213061</t>
+  </si>
+  <si>
+    <t>1900051101</t>
+  </si>
+  <si>
+    <t>78216036</t>
+  </si>
+  <si>
+    <t>1900167800</t>
+  </si>
+  <si>
+    <t>78269423</t>
+  </si>
+  <si>
+    <t>1900488682</t>
+  </si>
+  <si>
+    <t>123456789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,15 +202,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -90,32 +224,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -134,20 +363,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}" name="Tabela13" displayName="Tabela13" ref="A1:G2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:G2" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}"/>
+  <tableColumns count="7">
+    <tableColumn id="13" xr3:uid="{AE4A9C64-0A90-4495-BB17-09C0E95CA992}" name="Número da conta" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{30F48DDE-8BF9-46FE-96B7-8374CD8F97C0}" name="Código do procedimento (atual)" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{634D05B9-5FD4-4A33-AC53-5E26A58D8BF6}" name="Código do procedimento (novo)" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{66DFFD62-75DA-40BE-B887-670CE1AC6712}" name="Tipo de tabela (atual)" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{50109550-C17C-498A-8528-426B8B7C2837}" name="Tipo de tabela (novo)" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{CB84EC5B-03C0-46F2-B02B-F8F418302B2E}" name="Unidade de medida (atual)" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{B843398D-0E00-42D0-92BA-AD9ED7F09000}" name="Unidade de medida (novo)" dataDxfId="7" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:D3" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,32 +688,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37037BB9-A3E7-4480-A139-D02AEED3851B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>22222222</v>
       </c>
@@ -496,7 +786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>22222222</v>
       </c>
@@ -509,6 +799,260 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/Teste.xlsx
+++ b/sources/Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\Documents\GitHub\python-automatics-data-alterations-in-xml-file\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B48DD-CB40-4F23-A7E6-53B65E8EC9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A625D-B076-4077-B3F0-3BA85D59EA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>nrconta</t>
   </si>
@@ -48,24 +48,6 @@
     <t>newvlr</t>
   </si>
   <si>
-    <t>99999917</t>
-  </si>
-  <si>
-    <t>24,91</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>60023406</t>
-  </si>
-  <si>
-    <t>124,24</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>Número da conta</t>
   </si>
   <si>
@@ -87,116 +69,101 @@
     <t>Unidade de medida (novo)</t>
   </si>
   <si>
-    <t>0000062684</t>
-  </si>
-  <si>
-    <t>2094000492</t>
-  </si>
-  <si>
-    <t>79419623</t>
-  </si>
-  <si>
-    <t>1900159085</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>0000119306</t>
-  </si>
-  <si>
-    <t>1900224723</t>
-  </si>
-  <si>
-    <t>0000145371</t>
-  </si>
-  <si>
-    <t>1902962543</t>
-  </si>
-  <si>
-    <t>0000767118</t>
-  </si>
-  <si>
-    <t>1900312770</t>
-  </si>
-  <si>
-    <t>78202426</t>
-  </si>
-  <si>
-    <t>1900774243</t>
-  </si>
-  <si>
-    <t>0000273887</t>
-  </si>
-  <si>
-    <t>1900405140</t>
-  </si>
-  <si>
-    <t>78413494</t>
-  </si>
-  <si>
-    <t>1900108332</t>
-  </si>
-  <si>
-    <t>0000064026</t>
-  </si>
-  <si>
-    <t>90247604</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>0000306686</t>
-  </si>
-  <si>
-    <t>2094372470</t>
-  </si>
-  <si>
-    <t>60002054</t>
-  </si>
-  <si>
-    <t>60001054</t>
-  </si>
-  <si>
-    <t>70705259</t>
-  </si>
-  <si>
-    <t>1900225495</t>
-  </si>
-  <si>
-    <t>78213061</t>
-  </si>
-  <si>
-    <t>1900051101</t>
-  </si>
-  <si>
-    <t>78216036</t>
-  </si>
-  <si>
-    <t>1900167800</t>
-  </si>
-  <si>
-    <t>78269423</t>
-  </si>
-  <si>
-    <t>1900488682</t>
-  </si>
-  <si>
-    <t>123456789</t>
+    <t>90289641</t>
+  </si>
+  <si>
+    <t>96,65</t>
+  </si>
+  <si>
+    <t>92,78</t>
+  </si>
+  <si>
+    <t>90516532</t>
+  </si>
+  <si>
+    <t>9,00</t>
+  </si>
+  <si>
+    <t>8,64</t>
+  </si>
+  <si>
+    <t>90099419</t>
+  </si>
+  <si>
+    <t>3,66</t>
+  </si>
+  <si>
+    <t>3,52</t>
+  </si>
+  <si>
+    <t>90022157</t>
+  </si>
+  <si>
+    <t>9,52</t>
+  </si>
+  <si>
+    <t>9,14</t>
+  </si>
+  <si>
+    <t>90103017</t>
+  </si>
+  <si>
+    <t>658,96</t>
+  </si>
+  <si>
+    <t>632,60</t>
+  </si>
+  <si>
+    <t>90395972</t>
+  </si>
+  <si>
+    <t>9,16</t>
+  </si>
+  <si>
+    <t>8,79</t>
+  </si>
+  <si>
+    <t>90045505</t>
+  </si>
+  <si>
+    <t>21,38</t>
+  </si>
+  <si>
+    <t>19,34</t>
+  </si>
+  <si>
+    <t>90096924</t>
+  </si>
+  <si>
+    <t>17,80</t>
+  </si>
+  <si>
+    <t>17,09</t>
+  </si>
+  <si>
+    <t>90122941</t>
+  </si>
+  <si>
+    <t>39,06</t>
+  </si>
+  <si>
+    <t>66,30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,12 +178,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,39 +192,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,32 +204,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,25 +218,25 @@
   <dxfs count="15">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -363,29 +283,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}" name="Tabela13" displayName="Tabela13" ref="A1:G2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:G2" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}" name="Tabela13" displayName="Tabela13" ref="A1:G12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:G12" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}"/>
   <tableColumns count="7">
     <tableColumn id="13" xr3:uid="{AE4A9C64-0A90-4495-BB17-09C0E95CA992}" name="Número da conta" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{30F48DDE-8BF9-46FE-96B7-8374CD8F97C0}" name="Código do procedimento (atual)" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{634D05B9-5FD4-4A33-AC53-5E26A58D8BF6}" name="Código do procedimento (novo)" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{66DFFD62-75DA-40BE-B887-670CE1AC6712}" name="Tipo de tabela (atual)" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{50109550-C17C-498A-8528-426B8B7C2837}" name="Tipo de tabela (novo)" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{CB84EC5B-03C0-46F2-B02B-F8F418302B2E}" name="Unidade de medida (atual)" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{B843398D-0E00-42D0-92BA-AD9ED7F09000}" name="Unidade de medida (novo)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{30F48DDE-8BF9-46FE-96B7-8374CD8F97C0}" name="Código do procedimento (atual)" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{634D05B9-5FD4-4A33-AC53-5E26A58D8BF6}" name="Código do procedimento (novo)" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{66DFFD62-75DA-40BE-B887-670CE1AC6712}" name="Tipo de tabela (atual)" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{50109550-C17C-498A-8528-426B8B7C2837}" name="Tipo de tabela (novo)" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{CB84EC5B-03C0-46F2-B02B-F8F418302B2E}" name="Unidade de medida (atual)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{B843398D-0E00-42D0-92BA-AD9ED7F09000}" name="Unidade de medida (novo)" dataDxfId="6" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:D3" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D19" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -688,67 +608,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37037BB9-A3E7-4480-A139-D02AEED3851B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="2">
+        <v>98010670</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>90372310</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>90018370</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>90289870</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>90360400</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>90302192</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>90466373</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>78214190</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1200110578</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>74406884</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1200144279</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,9 +806,10 @@
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,292 +823,221 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>22222222</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>22222222</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>90385080</v>
+      </c>
+      <c r="C11" s="1">
+        <v>169.9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>163.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>90257537</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19.32</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>90209117</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>90294220</v>
+      </c>
+      <c r="C14" s="1">
+        <v>101.56</v>
+      </c>
+      <c r="D14" s="1">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>1200145914</v>
+      </c>
+      <c r="C15" s="1">
+        <v>17.16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>78997500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>30403120</v>
+      </c>
+      <c r="C17" s="1">
+        <v>420.41</v>
+      </c>
+      <c r="D17" s="1">
+        <v>420.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sources/Teste.xlsx
+++ b/sources/Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\python-automatics-data-alterations-in-xml-file\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5107E-1112-4E5F-ABC4-D665060460DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D223A-B2F8-4172-84FE-C43D4644F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="2040" windowWidth="16200" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -153,7 +153,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -167,84 +167,84 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -263,45 +263,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}" name="Tabela13" displayName="Tabela13" ref="A1:G2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}" name="Tabela13" displayName="Tabela13" ref="A1:G2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:G2" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}"/>
   <tableColumns count="7">
-    <tableColumn id="13" xr3:uid="{AE4A9C64-0A90-4495-BB17-09C0E95CA992}" name="Número da conta" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{30F48DDE-8BF9-46FE-96B7-8374CD8F97C0}" name="Código do procedimento (atual)" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{634D05B9-5FD4-4A33-AC53-5E26A58D8BF6}" name="Código do procedimento (novo)" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{66DFFD62-75DA-40BE-B887-670CE1AC6712}" name="Tipo de tabela (atual)" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{50109550-C17C-498A-8528-426B8B7C2837}" name="Tipo de tabela (novo)" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{CB84EC5B-03C0-46F2-B02B-F8F418302B2E}" name="Unidade de medida (atual)" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{B843398D-0E00-42D0-92BA-AD9ED7F09000}" name="Unidade de medida (novo)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{AE4A9C64-0A90-4495-BB17-09C0E95CA992}" name="Número da conta" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{30F48DDE-8BF9-46FE-96B7-8374CD8F97C0}" name="Código do procedimento (atual)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{634D05B9-5FD4-4A33-AC53-5E26A58D8BF6}" name="Código do procedimento (novo)" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{66DFFD62-75DA-40BE-B887-670CE1AC6712}" name="Tipo de tabela (atual)" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{50109550-C17C-498A-8528-426B8B7C2837}" name="Tipo de tabela (novo)" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{CB84EC5B-03C0-46F2-B02B-F8F418302B2E}" name="Unidade de medida (atual)" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{B843398D-0E00-42D0-92BA-AD9ED7F09000}" name="Unidade de medida (novo)" dataDxfId="16" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:D2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:G2" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}"/>
   <tableColumns count="7">
-    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -607,7 +607,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -668,7 +668,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -711,7 +711,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/sources/Teste.xlsx
+++ b/sources/Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\python-automatics-data-alterations-in-xml-file\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16D223A-B2F8-4172-84FE-C43D4644F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE22008A-0E98-433A-9A5F-EF1EC0D5E819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2640" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>nrconta</t>
   </si>
@@ -60,12 +60,6 @@
     <t>99999999</t>
   </si>
   <si>
-    <t>22222222</t>
-  </si>
-  <si>
-    <t>99999917</t>
-  </si>
-  <si>
     <t>60015179</t>
   </si>
   <si>
@@ -73,6 +67,15 @@
   </si>
   <si>
     <t>40,00</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>00000003</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,14 +110,8 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,17 +128,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -153,7 +139,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -163,61 +149,96 @@
   <dxfs count="24">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -263,45 +284,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}" name="Tabela13" displayName="Tabela13" ref="A1:G2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:G2" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}" name="Tabela13" displayName="Tabela13" ref="A1:G5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:G5" xr:uid="{03C310B8-D564-4A91-9D16-1729C7B6396B}"/>
   <tableColumns count="7">
     <tableColumn id="13" xr3:uid="{AE4A9C64-0A90-4495-BB17-09C0E95CA992}" name="Número da conta" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{30F48DDE-8BF9-46FE-96B7-8374CD8F97C0}" name="Código do procedimento (atual)" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{634D05B9-5FD4-4A33-AC53-5E26A58D8BF6}" name="Código do procedimento (novo)" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{66DFFD62-75DA-40BE-B887-670CE1AC6712}" name="Tipo de tabela (atual)" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{50109550-C17C-498A-8528-426B8B7C2837}" name="Tipo de tabela (novo)" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{CB84EC5B-03C0-46F2-B02B-F8F418302B2E}" name="Unidade de medida (atual)" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{B843398D-0E00-42D0-92BA-AD9ED7F09000}" name="Unidade de medida (novo)" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{30F48DDE-8BF9-46FE-96B7-8374CD8F97C0}" name="Código do procedimento (atual)" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{634D05B9-5FD4-4A33-AC53-5E26A58D8BF6}" name="Código do procedimento (novo)" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{66DFFD62-75DA-40BE-B887-670CE1AC6712}" name="Tipo de tabela (atual)" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{50109550-C17C-498A-8528-426B8B7C2837}" name="Tipo de tabela (novo)" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{CB84EC5B-03C0-46F2-B02B-F8F418302B2E}" name="Unidade de medida (atual)" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{B843398D-0E00-42D0-92BA-AD9ED7F09000}" name="Unidade de medida (novo)" dataDxfId="15" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:D2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:G2" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:G3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}"/>
   <tableColumns count="7">
-    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -604,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37037BB9-A3E7-4480-A139-D02AEED3851B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +664,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -652,6 +673,45 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
+        <v>60000635</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>60001054</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>60015160</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -667,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,10 +759,10 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -720,10 +780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16E75D9-ABD9-4040-81D6-B2E7D91186FF}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,26 +812,33 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/sources/Teste.xlsx
+++ b/sources/Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\python-automatics-data-alterations-in-xml-file\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE22008A-0E98-433A-9A5F-EF1EC0D5E819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0106BC-D036-437D-8865-25ACC160C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3585" yWindow="2640" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>nrconta</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>00000003</t>
+  </si>
+  <si>
+    <t>364,65</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>1212,93</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>50,25</t>
   </si>
 </sst>
 </file>
@@ -132,21 +147,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -222,10 +238,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -300,29 +312,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:D2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:D5" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G3" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:G3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}"/>
   <tableColumns count="7">
-    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="1" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,7 +640,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,43 +687,43 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
         <v>60000635</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
         <v>60001054</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>60015160</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -725,10 +737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +768,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -768,6 +780,42 @@
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
       <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2">
+        <v>60000635</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>60001054</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2">
+        <v>60015160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sources/Teste.xlsx
+++ b/sources/Teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\Documents\GitHub\python-automatics-data-alterations-in-xml-file\sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasp\Documents\GitHub\python-automatics-data-alterations-in-xml-file\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0106BC-D036-437D-8865-25ACC160C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7830A9BD-C7DD-4A69-B816-EC0E6CB6B71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2640" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="1980" windowWidth="15375" windowHeight="8160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>nrconta</t>
   </si>
@@ -63,12 +63,6 @@
     <t>60015179</t>
   </si>
   <si>
-    <t>42,02</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
     <t>00000001</t>
   </si>
   <si>
@@ -78,19 +72,22 @@
     <t>00000003</t>
   </si>
   <si>
-    <t>364,65</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>1212,93</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>50,25</t>
+    <t>90372310</t>
+  </si>
+  <si>
+    <t>10,81</t>
+  </si>
+  <si>
+    <t>10,39</t>
+  </si>
+  <si>
+    <t>90018370</t>
+  </si>
+  <si>
+    <t>14,71</t>
+  </si>
+  <si>
+    <t>14,13</t>
   </si>
 </sst>
 </file>
@@ -112,21 +109,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -134,31 +125,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -229,12 +216,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -312,29 +293,29 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:D5" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}" name="Tabela2" displayName="Tabela2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:D9" xr:uid="{E0F2FB37-2FA7-4ABE-961E-D044033A56E1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C863B0F2-02FC-407C-91A8-E42AD688AA29}" name="nrconta" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{E268CB74-220B-418C-9C52-BFAF629A6E4C}" name="cod" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CE8271B6-8061-48AA-BB99-CFA39A9D5183}" name="oldvlr" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{CA07F3D0-D90B-4DB1-9C5B-C99B2C14FDF5}" name="newvlr" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}" name="Tabela134" displayName="Tabela134" ref="A1:G3" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:G3" xr:uid="{51DE6959-D817-4492-B3D4-4658D5AD2B22}"/>
   <tableColumns count="7">
-    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{D82D37B4-934F-41DF-AF84-63D84864C894}" name="Número da conta" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{7D0B944E-87A2-4FEF-B152-E2F7FA2B436F}" name="Código do procedimento (atual)" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00FA8051-0576-4CB0-BC28-0A16558FA4FB}" name="Código do procedimento (novo)" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{DAA713A3-7DE3-49D7-B733-3E23399D0DD6}" name="Tipo de tabela (atual)" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{F28D723F-22B3-48E5-9EAE-B494CB7B6E6E}" name="Tipo de tabela (novo)" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{5D954E41-8139-4FF1-99BA-5DD4542C3385}" name="Unidade de medida (atual)" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{4BD77B0E-1BC3-4C46-801E-E0C3BD669F31}" name="Unidade de medida (novo)" dataDxfId="3" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37037BB9-A3E7-4480-A139-D02AEED3851B}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
@@ -692,7 +673,7 @@
         <v>60000635</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -705,7 +686,7 @@
         <v>60001054</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -718,7 +699,7 @@
         <v>60015160</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -737,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +732,7 @@
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,57 +746,89 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2">
-        <v>60000635</v>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
-        <v>60001054</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90289870</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>60015160</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>90360400</v>
+      </c>
+      <c r="C5" s="1">
+        <v>12.66</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
+        <v>90302192</v>
+      </c>
+      <c r="C6" s="1">
+        <v>83.6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80.260000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2">
+        <v>90466373</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20.13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
